--- a/data/EmissionSupply/Lit_EF.xlsx
+++ b/data/EmissionSupply/Lit_EF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\GitHub\EMF33\data\EmissionSupply\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D88B9723-C2BC-49EF-8568-7B0B851B1961}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4349464F-C2A1-4426-BEC2-238DDEB86932}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3225" yWindow="4560" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{64031EF1-5B25-4115-AB5A-F6D6B2D5E016}"/>
+    <workbookView xWindow="2880" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{64031EF1-5B25-4115-AB5A-F6D6B2D5E016}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="3" r:id="rId1"/>
@@ -170,6 +170,1243 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Kalt 2020</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Kalt_2020!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58.899999999999991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>73.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>163.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>169.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Kalt_2020!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>19.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>95.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>124.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D338-40EF-95BF-F161D56036D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Daioglou 2017</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Daioglou_2017!$D$2:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.4071210769230771E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.8488129230769232E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11215397538461536</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17293562153846154</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.1996325446153833</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.555269467692298</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.729833961538461</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.507788246153851</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23.819847092307697</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24.032524146153847</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24.334637861538468</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24.974785738461549</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>49.824914830769231</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>123.33811504615385</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>143.25164124615384</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>146.24017729230769</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>147.51666476923077</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>148.15301166153847</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>148.82606747846154</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>149.20029493692309</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Daioglou_2017!$A$2:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D338-40EF-95BF-F161D56036D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="255355584"/>
+        <c:axId val="291786272"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="255355584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Primary Potential (EJ/yr)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="291786272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="291786272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Emission Factor (kgCO2/GJ)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="255355584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9CDBAB0-7F4C-44CD-A588-3B776C9496AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -471,8 +1708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11F2B754-BC52-441D-A6A8-4C187A55B47C}">
   <dimension ref="A4:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,6 +1756,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -526,9 +1764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A44F8D7B-827C-4B0C-9301-FF945293EE38}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -538,7 +1774,7 @@
     <col min="4" max="4" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -578,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="8">
-        <f t="shared" ref="D3:D23" si="0">C3-((C3-B3)*(85-30))/(85-20)</f>
+        <f t="shared" ref="D3:D22" si="0">C3-((C3-B3)*(85-30))/(85-20)</f>
         <v>5.4071210769230771E-2</v>
       </c>
     </row>
@@ -883,7 +2119,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6510C5EB-23D4-4218-B0A2-B623A5C142F2}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/data/EmissionSupply/Lit_EF.xlsx
+++ b/data/EmissionSupply/Lit_EF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\GitHub\EMF33\data\EmissionSupply\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA6EF99-E0DA-478C-A6CA-AC522560D16C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE24826-3D3A-45FB-ACEF-C8143EACCB1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{64031EF1-5B25-4115-AB5A-F6D6B2D5E016}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{64031EF1-5B25-4115-AB5A-F6D6B2D5E016}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="34">
   <si>
     <t>EF_kgCO2pGJprim</t>
   </si>
@@ -132,12 +134,21 @@
   <si>
     <t>CumPrimBio</t>
   </si>
+  <si>
+    <t>LandCounterfactual</t>
+  </si>
+  <si>
+    <t>NaturalRegrowth</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,6 +161,12 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -175,12 +192,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,7 +515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11F2B754-BC52-441D-A6A8-4C187A55B47C}">
   <dimension ref="A4:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -578,10 +596,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A44F8D7B-827C-4B0C-9301-FF945293EE38}">
-  <dimension ref="A1:C211"/>
+  <dimension ref="A1:D211"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,7 +611,7 @@
     <col min="6" max="6" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -603,8 +621,11 @@
       <c r="C1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -614,8 +635,11 @@
       <c r="C2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
@@ -625,8 +649,11 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10</v>
       </c>
@@ -636,8 +663,11 @@
       <c r="C4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>15</v>
       </c>
@@ -647,8 +677,11 @@
       <c r="C5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>20</v>
       </c>
@@ -658,8 +691,11 @@
       <c r="C6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>25</v>
       </c>
@@ -669,8 +705,11 @@
       <c r="C7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>30</v>
       </c>
@@ -680,8 +719,11 @@
       <c r="C8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>35</v>
       </c>
@@ -691,8 +733,11 @@
       <c r="C9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>40</v>
       </c>
@@ -702,8 +747,11 @@
       <c r="C10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>45</v>
       </c>
@@ -713,8 +761,11 @@
       <c r="C11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>50</v>
       </c>
@@ -724,8 +775,11 @@
       <c r="C12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>55</v>
       </c>
@@ -735,8 +789,11 @@
       <c r="C13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>60</v>
       </c>
@@ -746,8 +803,11 @@
       <c r="C14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>65</v>
       </c>
@@ -757,8 +817,11 @@
       <c r="C15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>70</v>
       </c>
@@ -768,8 +831,11 @@
       <c r="C16" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>75</v>
       </c>
@@ -779,8 +845,11 @@
       <c r="C17" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>80</v>
       </c>
@@ -790,8 +859,11 @@
       <c r="C18" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>85</v>
       </c>
@@ -801,8 +873,11 @@
       <c r="C19" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>90</v>
       </c>
@@ -812,8 +887,11 @@
       <c r="C20" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>95</v>
       </c>
@@ -823,8 +901,11 @@
       <c r="C21" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>100</v>
       </c>
@@ -834,8 +915,11 @@
       <c r="C22" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0</v>
       </c>
@@ -845,8 +929,11 @@
       <c r="C23" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5</v>
       </c>
@@ -856,8 +943,11 @@
       <c r="C24" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>10</v>
       </c>
@@ -867,8 +957,11 @@
       <c r="C25" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>15</v>
       </c>
@@ -878,8 +971,11 @@
       <c r="C26" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>20</v>
       </c>
@@ -889,8 +985,11 @@
       <c r="C27" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>25</v>
       </c>
@@ -900,8 +999,11 @@
       <c r="C28" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>30</v>
       </c>
@@ -911,8 +1013,11 @@
       <c r="C29" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>35</v>
       </c>
@@ -922,8 +1027,11 @@
       <c r="C30" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>40</v>
       </c>
@@ -933,8 +1041,11 @@
       <c r="C31" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>45</v>
       </c>
@@ -944,8 +1055,11 @@
       <c r="C32" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>50</v>
       </c>
@@ -955,8 +1069,11 @@
       <c r="C33" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>55</v>
       </c>
@@ -966,8 +1083,11 @@
       <c r="C34" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>60</v>
       </c>
@@ -977,8 +1097,11 @@
       <c r="C35" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>65</v>
       </c>
@@ -988,8 +1111,11 @@
       <c r="C36" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>70</v>
       </c>
@@ -999,8 +1125,11 @@
       <c r="C37" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>75</v>
       </c>
@@ -1010,8 +1139,11 @@
       <c r="C38" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>80</v>
       </c>
@@ -1021,8 +1153,11 @@
       <c r="C39" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>85</v>
       </c>
@@ -1032,8 +1167,11 @@
       <c r="C40" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>90</v>
       </c>
@@ -1043,8 +1181,11 @@
       <c r="C41" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>95</v>
       </c>
@@ -1054,8 +1195,11 @@
       <c r="C42" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>100</v>
       </c>
@@ -1065,8 +1209,11 @@
       <c r="C43" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>0</v>
       </c>
@@ -1076,8 +1223,11 @@
       <c r="C44" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>5</v>
       </c>
@@ -1087,8 +1237,11 @@
       <c r="C45" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>10</v>
       </c>
@@ -1098,8 +1251,11 @@
       <c r="C46" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>15</v>
       </c>
@@ -1109,8 +1265,11 @@
       <c r="C47" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>20</v>
       </c>
@@ -1120,8 +1279,11 @@
       <c r="C48" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>25</v>
       </c>
@@ -1131,8 +1293,11 @@
       <c r="C49" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>30</v>
       </c>
@@ -1142,8 +1307,11 @@
       <c r="C50" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>35</v>
       </c>
@@ -1153,8 +1321,11 @@
       <c r="C51" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>40</v>
       </c>
@@ -1164,8 +1335,11 @@
       <c r="C52" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>45</v>
       </c>
@@ -1175,8 +1349,11 @@
       <c r="C53" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>50</v>
       </c>
@@ -1186,8 +1363,11 @@
       <c r="C54" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>55</v>
       </c>
@@ -1197,8 +1377,11 @@
       <c r="C55" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>60</v>
       </c>
@@ -1208,8 +1391,11 @@
       <c r="C56" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>65</v>
       </c>
@@ -1219,8 +1405,11 @@
       <c r="C57" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>70</v>
       </c>
@@ -1230,8 +1419,11 @@
       <c r="C58" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>75</v>
       </c>
@@ -1241,8 +1433,11 @@
       <c r="C59" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>80</v>
       </c>
@@ -1252,8 +1447,11 @@
       <c r="C60" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>85</v>
       </c>
@@ -1263,8 +1461,11 @@
       <c r="C61" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>90</v>
       </c>
@@ -1274,8 +1475,11 @@
       <c r="C62" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>95</v>
       </c>
@@ -1285,8 +1489,11 @@
       <c r="C63" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>100</v>
       </c>
@@ -1296,8 +1503,11 @@
       <c r="C64" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>0</v>
       </c>
@@ -1307,8 +1517,11 @@
       <c r="C65" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>5</v>
       </c>
@@ -1318,8 +1531,11 @@
       <c r="C66" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>10</v>
       </c>
@@ -1329,8 +1545,11 @@
       <c r="C67" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>15</v>
       </c>
@@ -1340,8 +1559,11 @@
       <c r="C68" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>20</v>
       </c>
@@ -1351,8 +1573,11 @@
       <c r="C69" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>25</v>
       </c>
@@ -1362,8 +1587,11 @@
       <c r="C70" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>30</v>
       </c>
@@ -1373,8 +1601,11 @@
       <c r="C71" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>35</v>
       </c>
@@ -1384,8 +1615,11 @@
       <c r="C72" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>40</v>
       </c>
@@ -1395,8 +1629,11 @@
       <c r="C73" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>45</v>
       </c>
@@ -1406,8 +1643,11 @@
       <c r="C74" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>50</v>
       </c>
@@ -1417,8 +1657,11 @@
       <c r="C75" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>55</v>
       </c>
@@ -1428,8 +1671,11 @@
       <c r="C76" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>60</v>
       </c>
@@ -1439,8 +1685,11 @@
       <c r="C77" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>65</v>
       </c>
@@ -1450,8 +1699,11 @@
       <c r="C78" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>70</v>
       </c>
@@ -1461,8 +1713,11 @@
       <c r="C79" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>75</v>
       </c>
@@ -1472,8 +1727,11 @@
       <c r="C80" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -1483,8 +1741,11 @@
       <c r="C81" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>85</v>
       </c>
@@ -1494,8 +1755,11 @@
       <c r="C82" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>90</v>
       </c>
@@ -1505,8 +1769,11 @@
       <c r="C83" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>95</v>
       </c>
@@ -1516,8 +1783,11 @@
       <c r="C84" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>100</v>
       </c>
@@ -1527,8 +1797,11 @@
       <c r="C85" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>0</v>
       </c>
@@ -1538,8 +1811,11 @@
       <c r="C86" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>5</v>
       </c>
@@ -1549,8 +1825,11 @@
       <c r="C87" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>10</v>
       </c>
@@ -1560,8 +1839,11 @@
       <c r="C88" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>15</v>
       </c>
@@ -1571,8 +1853,11 @@
       <c r="C89" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>20</v>
       </c>
@@ -1582,8 +1867,11 @@
       <c r="C90" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>25</v>
       </c>
@@ -1593,8 +1881,11 @@
       <c r="C91" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>30</v>
       </c>
@@ -1604,8 +1895,11 @@
       <c r="C92" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>35</v>
       </c>
@@ -1615,8 +1909,11 @@
       <c r="C93" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>40</v>
       </c>
@@ -1626,8 +1923,11 @@
       <c r="C94" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>45</v>
       </c>
@@ -1637,8 +1937,11 @@
       <c r="C95" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>50</v>
       </c>
@@ -1648,8 +1951,11 @@
       <c r="C96" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>55</v>
       </c>
@@ -1659,8 +1965,11 @@
       <c r="C97" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>60</v>
       </c>
@@ -1670,8 +1979,11 @@
       <c r="C98" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>65</v>
       </c>
@@ -1681,8 +1993,11 @@
       <c r="C99" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>70</v>
       </c>
@@ -1692,8 +2007,11 @@
       <c r="C100" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D100" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>75</v>
       </c>
@@ -1703,8 +2021,11 @@
       <c r="C101" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D101" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>80</v>
       </c>
@@ -1714,8 +2035,11 @@
       <c r="C102" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D102" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>85</v>
       </c>
@@ -1725,8 +2049,11 @@
       <c r="C103" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D103" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>90</v>
       </c>
@@ -1736,8 +2063,11 @@
       <c r="C104" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D104" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>95</v>
       </c>
@@ -1747,8 +2077,11 @@
       <c r="C105" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D105" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>100</v>
       </c>
@@ -1758,8 +2091,11 @@
       <c r="C106" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D106" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>0</v>
       </c>
@@ -1769,8 +2105,11 @@
       <c r="C107" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D107" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>5</v>
       </c>
@@ -1780,8 +2119,11 @@
       <c r="C108" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D108" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>10</v>
       </c>
@@ -1791,8 +2133,11 @@
       <c r="C109" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D109" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>15</v>
       </c>
@@ -1802,8 +2147,11 @@
       <c r="C110" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D110" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>20</v>
       </c>
@@ -1813,8 +2161,11 @@
       <c r="C111" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D111" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>25</v>
       </c>
@@ -1824,8 +2175,11 @@
       <c r="C112" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D112" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>30</v>
       </c>
@@ -1835,8 +2189,11 @@
       <c r="C113" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D113" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>35</v>
       </c>
@@ -1846,8 +2203,11 @@
       <c r="C114" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D114" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>40</v>
       </c>
@@ -1857,8 +2217,11 @@
       <c r="C115" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D115" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>45</v>
       </c>
@@ -1868,8 +2231,11 @@
       <c r="C116" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D116" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>50</v>
       </c>
@@ -1879,8 +2245,11 @@
       <c r="C117" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D117" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>55</v>
       </c>
@@ -1890,8 +2259,11 @@
       <c r="C118" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D118" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>60</v>
       </c>
@@ -1901,8 +2273,11 @@
       <c r="C119" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D119" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>65</v>
       </c>
@@ -1912,8 +2287,11 @@
       <c r="C120" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D120" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>70</v>
       </c>
@@ -1923,8 +2301,11 @@
       <c r="C121" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D121" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>75</v>
       </c>
@@ -1934,8 +2315,11 @@
       <c r="C122" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D122" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>80</v>
       </c>
@@ -1945,8 +2329,11 @@
       <c r="C123" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D123" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>85</v>
       </c>
@@ -1956,8 +2343,11 @@
       <c r="C124" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D124" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>90</v>
       </c>
@@ -1967,8 +2357,11 @@
       <c r="C125" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D125" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>95</v>
       </c>
@@ -1978,8 +2371,11 @@
       <c r="C126" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D126" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>100</v>
       </c>
@@ -1989,8 +2385,11 @@
       <c r="C127" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D127" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>0</v>
       </c>
@@ -2000,8 +2399,11 @@
       <c r="C128" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D128" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>5</v>
       </c>
@@ -2011,8 +2413,11 @@
       <c r="C129" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D129" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>10</v>
       </c>
@@ -2022,8 +2427,11 @@
       <c r="C130" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D130" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>15</v>
       </c>
@@ -2033,8 +2441,11 @@
       <c r="C131" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D131" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>20</v>
       </c>
@@ -2044,8 +2455,11 @@
       <c r="C132" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D132" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>25</v>
       </c>
@@ -2055,8 +2469,11 @@
       <c r="C133" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D133" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>30</v>
       </c>
@@ -2066,8 +2483,11 @@
       <c r="C134" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D134" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>35</v>
       </c>
@@ -2077,8 +2497,11 @@
       <c r="C135" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D135" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>40</v>
       </c>
@@ -2088,8 +2511,11 @@
       <c r="C136" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D136" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>45</v>
       </c>
@@ -2099,8 +2525,11 @@
       <c r="C137" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D137" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>50</v>
       </c>
@@ -2110,8 +2539,11 @@
       <c r="C138" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D138" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>55</v>
       </c>
@@ -2121,8 +2553,11 @@
       <c r="C139" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D139" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>60</v>
       </c>
@@ -2132,8 +2567,11 @@
       <c r="C140" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D140" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>65</v>
       </c>
@@ -2143,8 +2581,11 @@
       <c r="C141" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D141" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>70</v>
       </c>
@@ -2154,8 +2595,11 @@
       <c r="C142" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D142" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>75</v>
       </c>
@@ -2165,8 +2609,11 @@
       <c r="C143" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D143" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>80</v>
       </c>
@@ -2176,8 +2623,11 @@
       <c r="C144" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D144" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>85</v>
       </c>
@@ -2187,8 +2637,11 @@
       <c r="C145" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D145" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>90</v>
       </c>
@@ -2198,8 +2651,11 @@
       <c r="C146" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D146" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>95</v>
       </c>
@@ -2209,8 +2665,11 @@
       <c r="C147" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D147" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>100</v>
       </c>
@@ -2220,8 +2679,11 @@
       <c r="C148" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D148" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>0</v>
       </c>
@@ -2231,8 +2693,11 @@
       <c r="C149" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D149" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>5</v>
       </c>
@@ -2242,8 +2707,11 @@
       <c r="C150" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D150" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>10</v>
       </c>
@@ -2253,8 +2721,11 @@
       <c r="C151" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D151" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>15</v>
       </c>
@@ -2264,8 +2735,11 @@
       <c r="C152" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D152" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>20</v>
       </c>
@@ -2275,8 +2749,11 @@
       <c r="C153" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D153" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>25</v>
       </c>
@@ -2286,8 +2763,11 @@
       <c r="C154" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D154" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>30</v>
       </c>
@@ -2297,8 +2777,11 @@
       <c r="C155" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D155" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>35</v>
       </c>
@@ -2308,8 +2791,11 @@
       <c r="C156" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D156" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>40</v>
       </c>
@@ -2319,8 +2805,11 @@
       <c r="C157" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D157" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>45</v>
       </c>
@@ -2330,8 +2819,11 @@
       <c r="C158" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D158" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>50</v>
       </c>
@@ -2341,8 +2833,11 @@
       <c r="C159" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D159" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>55</v>
       </c>
@@ -2352,8 +2847,11 @@
       <c r="C160" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D160" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>60</v>
       </c>
@@ -2363,8 +2861,11 @@
       <c r="C161" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D161" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>65</v>
       </c>
@@ -2374,8 +2875,11 @@
       <c r="C162" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D162" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>70</v>
       </c>
@@ -2385,8 +2889,11 @@
       <c r="C163" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D163" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>75</v>
       </c>
@@ -2396,8 +2903,11 @@
       <c r="C164" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D164" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>80</v>
       </c>
@@ -2407,8 +2917,11 @@
       <c r="C165" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D165" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>85</v>
       </c>
@@ -2418,8 +2931,11 @@
       <c r="C166" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D166" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>90</v>
       </c>
@@ -2429,8 +2945,11 @@
       <c r="C167" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D167" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>95</v>
       </c>
@@ -2440,8 +2959,11 @@
       <c r="C168" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D168" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>100</v>
       </c>
@@ -2451,8 +2973,11 @@
       <c r="C169" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D169" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>0</v>
       </c>
@@ -2462,8 +2987,11 @@
       <c r="C170" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D170" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>5</v>
       </c>
@@ -2473,8 +3001,11 @@
       <c r="C171" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D171" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>10</v>
       </c>
@@ -2484,8 +3015,11 @@
       <c r="C172" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D172" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>15</v>
       </c>
@@ -2495,8 +3029,11 @@
       <c r="C173" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D173" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>20</v>
       </c>
@@ -2506,8 +3043,11 @@
       <c r="C174" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D174" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>25</v>
       </c>
@@ -2517,8 +3057,11 @@
       <c r="C175" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D175" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>30</v>
       </c>
@@ -2528,8 +3071,11 @@
       <c r="C176" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D176" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>35</v>
       </c>
@@ -2539,8 +3085,11 @@
       <c r="C177" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D177" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>40</v>
       </c>
@@ -2550,8 +3099,11 @@
       <c r="C178" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D178" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>45</v>
       </c>
@@ -2561,8 +3113,11 @@
       <c r="C179" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D179" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>50</v>
       </c>
@@ -2572,8 +3127,11 @@
       <c r="C180" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D180" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>55</v>
       </c>
@@ -2583,8 +3141,11 @@
       <c r="C181" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D181" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>60</v>
       </c>
@@ -2594,8 +3155,11 @@
       <c r="C182" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D182" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>65</v>
       </c>
@@ -2605,8 +3169,11 @@
       <c r="C183" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D183" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>70</v>
       </c>
@@ -2616,8 +3183,11 @@
       <c r="C184" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D184" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>75</v>
       </c>
@@ -2627,8 +3197,11 @@
       <c r="C185" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D185" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>80</v>
       </c>
@@ -2638,8 +3211,11 @@
       <c r="C186" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D186" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>85</v>
       </c>
@@ -2649,8 +3225,11 @@
       <c r="C187" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D187" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>90</v>
       </c>
@@ -2660,8 +3239,11 @@
       <c r="C188" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D188" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>95</v>
       </c>
@@ -2671,8 +3253,11 @@
       <c r="C189" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D189" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>100</v>
       </c>
@@ -2682,8 +3267,11 @@
       <c r="C190" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D190" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>0</v>
       </c>
@@ -2693,8 +3281,11 @@
       <c r="C191" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D191" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>5</v>
       </c>
@@ -2704,8 +3295,11 @@
       <c r="C192" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D192" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>10</v>
       </c>
@@ -2715,8 +3309,11 @@
       <c r="C193" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D193" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>15</v>
       </c>
@@ -2726,8 +3323,11 @@
       <c r="C194" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D194" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>20</v>
       </c>
@@ -2737,8 +3337,11 @@
       <c r="C195" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D195" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>25</v>
       </c>
@@ -2748,8 +3351,11 @@
       <c r="C196" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D196" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>30</v>
       </c>
@@ -2759,8 +3365,11 @@
       <c r="C197" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D197" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>35</v>
       </c>
@@ -2770,8 +3379,11 @@
       <c r="C198" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D198" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>40</v>
       </c>
@@ -2781,8 +3393,11 @@
       <c r="C199" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D199" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>45</v>
       </c>
@@ -2792,8 +3407,11 @@
       <c r="C200" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D200" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>50</v>
       </c>
@@ -2803,8 +3421,11 @@
       <c r="C201" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D201" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>55</v>
       </c>
@@ -2814,8 +3435,11 @@
       <c r="C202" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D202" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>60</v>
       </c>
@@ -2825,8 +3449,11 @@
       <c r="C203" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D203" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>65</v>
       </c>
@@ -2836,8 +3463,11 @@
       <c r="C204" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D204" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>70</v>
       </c>
@@ -2847,8 +3477,11 @@
       <c r="C205" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D205" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>75</v>
       </c>
@@ -2858,8 +3491,11 @@
       <c r="C206" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D206" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>80</v>
       </c>
@@ -2869,8 +3505,11 @@
       <c r="C207" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D207" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>85</v>
       </c>
@@ -2880,8 +3519,11 @@
       <c r="C208" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D208" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>90</v>
       </c>
@@ -2891,8 +3533,11 @@
       <c r="C209" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D209" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>95</v>
       </c>
@@ -2902,8 +3547,11 @@
       <c r="C210" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D210" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>100</v>
       </c>
@@ -2912,6 +3560,9 @@
       </c>
       <c r="C211" t="s">
         <v>21</v>
+      </c>
+      <c r="D211" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2923,19 +3574,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6510C5EB-23D4-4218-B0A2-B623A5C142F2}">
-  <dimension ref="A1:C76"/>
+  <dimension ref="A1:D152"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="53.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
     <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2945,8 +3599,11 @@
       <c r="C1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>9.9</v>
       </c>
@@ -2956,8 +3613,11 @@
       <c r="C2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>11.9</v>
       </c>
@@ -2967,8 +3627,11 @@
       <c r="C3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>11.9</v>
       </c>
@@ -2978,8 +3641,11 @@
       <c r="C4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>12.1</v>
       </c>
@@ -2989,8 +3655,11 @@
       <c r="C5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>16.3</v>
       </c>
@@ -3000,8 +3669,11 @@
       <c r="C6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>17</v>
       </c>
@@ -3011,8 +3683,11 @@
       <c r="C7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>19.399999999999999</v>
       </c>
@@ -3022,8 +3697,11 @@
       <c r="C8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>20</v>
       </c>
@@ -3033,8 +3711,11 @@
       <c r="C9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>20.399999999999999</v>
       </c>
@@ -3044,8 +3725,11 @@
       <c r="C10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>21</v>
       </c>
@@ -3055,8 +3739,11 @@
       <c r="C11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>21.1</v>
       </c>
@@ -3066,8 +3753,11 @@
       <c r="C12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>21.8</v>
       </c>
@@ -3077,8 +3767,11 @@
       <c r="C13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>23.7</v>
       </c>
@@ -3088,8 +3781,11 @@
       <c r="C14" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>29.7</v>
       </c>
@@ -3099,8 +3795,11 @@
       <c r="C15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>35.6</v>
       </c>
@@ -3110,8 +3809,11 @@
       <c r="C16" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>42.1</v>
       </c>
@@ -3121,8 +3823,11 @@
       <c r="C17" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>49.4</v>
       </c>
@@ -3132,8 +3837,11 @@
       <c r="C18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>95.9</v>
       </c>
@@ -3143,8 +3851,11 @@
       <c r="C19" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>124.8</v>
       </c>
@@ -3154,8 +3865,11 @@
       <c r="C20" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>9.9</v>
       </c>
@@ -3165,8 +3879,11 @@
       <c r="C21" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>11.9</v>
       </c>
@@ -3176,8 +3893,11 @@
       <c r="C22" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>11.9</v>
       </c>
@@ -3187,8 +3907,11 @@
       <c r="C23" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>12.1</v>
       </c>
@@ -3198,8 +3921,11 @@
       <c r="C24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>16.3</v>
       </c>
@@ -3209,8 +3935,11 @@
       <c r="C25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>17</v>
       </c>
@@ -3220,8 +3949,11 @@
       <c r="C26" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>19.8</v>
       </c>
@@ -3231,8 +3963,11 @@
       <c r="C27" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>20</v>
       </c>
@@ -3242,8 +3977,11 @@
       <c r="C28" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>20.2</v>
       </c>
@@ -3253,8 +3991,11 @@
       <c r="C29" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>20.3</v>
       </c>
@@ -3264,8 +4005,11 @@
       <c r="C30" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>21</v>
       </c>
@@ -3275,8 +4019,11 @@
       <c r="C31" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>21.1</v>
       </c>
@@ -3286,8 +4033,11 @@
       <c r="C32" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>24.9</v>
       </c>
@@ -3297,8 +4047,11 @@
       <c r="C33" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>27.7</v>
       </c>
@@ -3308,8 +4061,11 @@
       <c r="C34" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>29.7</v>
       </c>
@@ -3319,8 +4075,11 @@
       <c r="C35" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>29.8</v>
       </c>
@@ -3330,8 +4089,11 @@
       <c r="C36" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>30.8</v>
       </c>
@@ -3341,8 +4103,11 @@
       <c r="C37" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>49.4</v>
       </c>
@@ -3352,8 +4117,11 @@
       <c r="C38" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>9.9</v>
       </c>
@@ -3363,8 +4131,11 @@
       <c r="C39" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>11.9</v>
       </c>
@@ -3374,8 +4145,11 @@
       <c r="C40" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>11.9</v>
       </c>
@@ -3385,8 +4159,11 @@
       <c r="C41" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>12.1</v>
       </c>
@@ -3396,8 +4173,11 @@
       <c r="C42" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>16.3</v>
       </c>
@@ -3407,8 +4187,11 @@
       <c r="C43" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>17</v>
       </c>
@@ -3418,8 +4201,11 @@
       <c r="C44" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>20</v>
       </c>
@@ -3429,8 +4215,11 @@
       <c r="C45" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>20.3</v>
       </c>
@@ -3440,8 +4229,11 @@
       <c r="C46" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>21</v>
       </c>
@@ -3451,8 +4243,11 @@
       <c r="C47" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>21.1</v>
       </c>
@@ -3462,8 +4257,11 @@
       <c r="C48" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>21.8</v>
       </c>
@@ -3473,8 +4271,11 @@
       <c r="C49" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>22.7</v>
       </c>
@@ -3484,8 +4285,11 @@
       <c r="C50" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>26.1</v>
       </c>
@@ -3495,8 +4299,11 @@
       <c r="C51" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>29.7</v>
       </c>
@@ -3506,8 +4313,11 @@
       <c r="C52" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>32.5</v>
       </c>
@@ -3517,8 +4327,11 @@
       <c r="C53" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>38.6</v>
       </c>
@@ -3528,8 +4341,11 @@
       <c r="C54" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>49.4</v>
       </c>
@@ -3539,8 +4355,11 @@
       <c r="C55" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>73.099999999999994</v>
       </c>
@@ -3550,8 +4369,11 @@
       <c r="C56" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>80.3</v>
       </c>
@@ -3561,8 +4383,11 @@
       <c r="C57" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>9.9</v>
       </c>
@@ -3572,8 +4397,11 @@
       <c r="C58" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>11.9</v>
       </c>
@@ -3583,8 +4411,11 @@
       <c r="C59" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>11.9</v>
       </c>
@@ -3594,8 +4425,11 @@
       <c r="C60" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>12.1</v>
       </c>
@@ -3605,8 +4439,11 @@
       <c r="C61" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>16.3</v>
       </c>
@@ -3616,8 +4453,11 @@
       <c r="C62" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>17</v>
       </c>
@@ -3627,8 +4467,11 @@
       <c r="C63" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>19.8</v>
       </c>
@@ -3638,8 +4481,11 @@
       <c r="C64" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>20</v>
       </c>
@@ -3649,8 +4495,11 @@
       <c r="C65" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>20.2</v>
       </c>
@@ -3660,8 +4509,11 @@
       <c r="C66" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>20.3</v>
       </c>
@@ -3671,8 +4523,11 @@
       <c r="C67" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>21</v>
       </c>
@@ -3682,8 +4537,11 @@
       <c r="C68" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>21.1</v>
       </c>
@@ -3693,8 +4551,11 @@
       <c r="C69" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>24.9</v>
       </c>
@@ -3704,8 +4565,11 @@
       <c r="C70" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>27.7</v>
       </c>
@@ -3715,8 +4579,11 @@
       <c r="C71" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>29.7</v>
       </c>
@@ -3726,8 +4593,11 @@
       <c r="C72" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>29.8</v>
       </c>
@@ -3737,8 +4607,11 @@
       <c r="C73" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>30.8</v>
       </c>
@@ -3748,8 +4621,11 @@
       <c r="C74" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>46.9</v>
       </c>
@@ -3759,8 +4635,11 @@
       <c r="C75" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>49.4</v>
       </c>
@@ -3769,6 +4648,1073 @@
       </c>
       <c r="C76" t="s">
         <v>25</v>
+      </c>
+      <c r="D76" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>-4.7</v>
+      </c>
+      <c r="B77">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C77" t="s">
+        <v>22</v>
+      </c>
+      <c r="D77" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>-4.3</v>
+      </c>
+      <c r="B78">
+        <v>21.8</v>
+      </c>
+      <c r="C78" t="s">
+        <v>22</v>
+      </c>
+      <c r="D78" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>-4</v>
+      </c>
+      <c r="B79">
+        <v>32.5</v>
+      </c>
+      <c r="C79" t="s">
+        <v>22</v>
+      </c>
+      <c r="D79" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>-1.7</v>
+      </c>
+      <c r="B80">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="C80" t="s">
+        <v>22</v>
+      </c>
+      <c r="D80" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>-1</v>
+      </c>
+      <c r="B81">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="C81" t="s">
+        <v>22</v>
+      </c>
+      <c r="D81" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>-0.6</v>
+      </c>
+      <c r="B82">
+        <v>46.4</v>
+      </c>
+      <c r="C82" t="s">
+        <v>22</v>
+      </c>
+      <c r="D82" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>-0.4</v>
+      </c>
+      <c r="B83">
+        <v>79.199999999999989</v>
+      </c>
+      <c r="C83" t="s">
+        <v>22</v>
+      </c>
+      <c r="D83" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>-0.1</v>
+      </c>
+      <c r="B84">
+        <v>84.699999999999989</v>
+      </c>
+      <c r="C84" t="s">
+        <v>22</v>
+      </c>
+      <c r="D84" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>9.9</v>
+      </c>
+      <c r="B85">
+        <v>84.799999999999983</v>
+      </c>
+      <c r="C85" t="s">
+        <v>22</v>
+      </c>
+      <c r="D85" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>11.9</v>
+      </c>
+      <c r="B86">
+        <v>84.899999999999977</v>
+      </c>
+      <c r="C86" t="s">
+        <v>22</v>
+      </c>
+      <c r="D86" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>11.9</v>
+      </c>
+      <c r="B87">
+        <v>85.09999999999998</v>
+      </c>
+      <c r="C87" t="s">
+        <v>22</v>
+      </c>
+      <c r="D87" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>12.1</v>
+      </c>
+      <c r="B88">
+        <v>85.399999999999977</v>
+      </c>
+      <c r="C88" t="s">
+        <v>22</v>
+      </c>
+      <c r="D88" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>16.3</v>
+      </c>
+      <c r="B89">
+        <v>85.899999999999977</v>
+      </c>
+      <c r="C89" t="s">
+        <v>22</v>
+      </c>
+      <c r="D89" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>17</v>
+      </c>
+      <c r="B90">
+        <v>86.499999999999972</v>
+      </c>
+      <c r="C90" t="s">
+        <v>22</v>
+      </c>
+      <c r="D90" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>20</v>
+      </c>
+      <c r="B91">
+        <v>86.999999999999972</v>
+      </c>
+      <c r="C91" t="s">
+        <v>22</v>
+      </c>
+      <c r="D91" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>21</v>
+      </c>
+      <c r="B92">
+        <v>87.099999999999966</v>
+      </c>
+      <c r="C92" t="s">
+        <v>22</v>
+      </c>
+      <c r="D92" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>21.1</v>
+      </c>
+      <c r="B93">
+        <v>87.299999999999969</v>
+      </c>
+      <c r="C93" t="s">
+        <v>22</v>
+      </c>
+      <c r="D93" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>29.7</v>
+      </c>
+      <c r="B94">
+        <v>87.599999999999966</v>
+      </c>
+      <c r="C94" t="s">
+        <v>22</v>
+      </c>
+      <c r="D94" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>49.4</v>
+      </c>
+      <c r="B95">
+        <v>87.799999999999969</v>
+      </c>
+      <c r="C95" t="s">
+        <v>22</v>
+      </c>
+      <c r="D95" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>-12.2</v>
+      </c>
+      <c r="B96">
+        <v>1.2</v>
+      </c>
+      <c r="C96" t="s">
+        <v>23</v>
+      </c>
+      <c r="D96" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>-10.9</v>
+      </c>
+      <c r="B97">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C97" t="s">
+        <v>23</v>
+      </c>
+      <c r="D97" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>-9</v>
+      </c>
+      <c r="B98">
+        <v>5.3999999999999995</v>
+      </c>
+      <c r="C98" t="s">
+        <v>23</v>
+      </c>
+      <c r="D98" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>-8</v>
+      </c>
+      <c r="B99">
+        <v>10.399999999999999</v>
+      </c>
+      <c r="C99" t="s">
+        <v>23</v>
+      </c>
+      <c r="D99" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>-7.6</v>
+      </c>
+      <c r="B100">
+        <v>17.599999999999998</v>
+      </c>
+      <c r="C100" t="s">
+        <v>23</v>
+      </c>
+      <c r="D100" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>-7</v>
+      </c>
+      <c r="B101">
+        <v>18.299999999999997</v>
+      </c>
+      <c r="C101" t="s">
+        <v>23</v>
+      </c>
+      <c r="D101" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>-5.7</v>
+      </c>
+      <c r="B102">
+        <v>19.299999999999997</v>
+      </c>
+      <c r="C102" t="s">
+        <v>23</v>
+      </c>
+      <c r="D102" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>9.9</v>
+      </c>
+      <c r="B103">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C103" t="s">
+        <v>23</v>
+      </c>
+      <c r="D103" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>11.9</v>
+      </c>
+      <c r="B104">
+        <v>19.5</v>
+      </c>
+      <c r="C104" t="s">
+        <v>23</v>
+      </c>
+      <c r="D104" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>11.9</v>
+      </c>
+      <c r="B105">
+        <v>19.7</v>
+      </c>
+      <c r="C105" t="s">
+        <v>23</v>
+      </c>
+      <c r="D105" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>12.1</v>
+      </c>
+      <c r="B106">
+        <v>20</v>
+      </c>
+      <c r="C106" t="s">
+        <v>23</v>
+      </c>
+      <c r="D106" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>16.3</v>
+      </c>
+      <c r="B107">
+        <v>20.5</v>
+      </c>
+      <c r="C107" t="s">
+        <v>23</v>
+      </c>
+      <c r="D107" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>17</v>
+      </c>
+      <c r="B108">
+        <v>21.1</v>
+      </c>
+      <c r="C108" t="s">
+        <v>23</v>
+      </c>
+      <c r="D108" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>20</v>
+      </c>
+      <c r="B109">
+        <v>21.6</v>
+      </c>
+      <c r="C109" t="s">
+        <v>23</v>
+      </c>
+      <c r="D109" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>21</v>
+      </c>
+      <c r="B110">
+        <v>21.700000000000003</v>
+      </c>
+      <c r="C110" t="s">
+        <v>23</v>
+      </c>
+      <c r="D110" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>21.1</v>
+      </c>
+      <c r="B111">
+        <v>21.900000000000002</v>
+      </c>
+      <c r="C111" t="s">
+        <v>23</v>
+      </c>
+      <c r="D111" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>29.7</v>
+      </c>
+      <c r="B112">
+        <v>22.200000000000003</v>
+      </c>
+      <c r="C112" t="s">
+        <v>23</v>
+      </c>
+      <c r="D112" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>49.4</v>
+      </c>
+      <c r="B113">
+        <v>22.400000000000002</v>
+      </c>
+      <c r="C113" t="s">
+        <v>23</v>
+      </c>
+      <c r="D113" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <v>7.7</v>
+      </c>
+      <c r="B114" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D114" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>-3.7</v>
+      </c>
+      <c r="B115">
+        <v>11.1</v>
+      </c>
+      <c r="C115" t="s">
+        <v>24</v>
+      </c>
+      <c r="D115" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>-4.4000000000000004</v>
+      </c>
+      <c r="B116">
+        <v>22.1</v>
+      </c>
+      <c r="C116" t="s">
+        <v>24</v>
+      </c>
+      <c r="D116" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="B117">
+        <v>39</v>
+      </c>
+      <c r="C117" t="s">
+        <v>24</v>
+      </c>
+      <c r="D117" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>-5.9</v>
+      </c>
+      <c r="B118">
+        <v>56.6</v>
+      </c>
+      <c r="C118" t="s">
+        <v>24</v>
+      </c>
+      <c r="D118" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>-1.7</v>
+      </c>
+      <c r="B119">
+        <v>104.9</v>
+      </c>
+      <c r="C119" t="s">
+        <v>24</v>
+      </c>
+      <c r="D119" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="B120">
+        <v>113.30000000000001</v>
+      </c>
+      <c r="C120" t="s">
+        <v>24</v>
+      </c>
+      <c r="D120" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="B121">
+        <v>125.00000000000001</v>
+      </c>
+      <c r="C121" t="s">
+        <v>24</v>
+      </c>
+      <c r="D121" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>-1.9</v>
+      </c>
+      <c r="B122">
+        <v>130.70000000000002</v>
+      </c>
+      <c r="C122" t="s">
+        <v>24</v>
+      </c>
+      <c r="D122" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>11.9</v>
+      </c>
+      <c r="B123">
+        <v>130.80000000000001</v>
+      </c>
+      <c r="C123" t="s">
+        <v>24</v>
+      </c>
+      <c r="D123" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>49.4</v>
+      </c>
+      <c r="B124">
+        <v>131</v>
+      </c>
+      <c r="C124" t="s">
+        <v>24</v>
+      </c>
+      <c r="D124" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>29.7</v>
+      </c>
+      <c r="B125">
+        <v>131.19999999999999</v>
+      </c>
+      <c r="C125" t="s">
+        <v>24</v>
+      </c>
+      <c r="D125" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>17</v>
+      </c>
+      <c r="B126">
+        <v>131.69999999999999</v>
+      </c>
+      <c r="C126" t="s">
+        <v>24</v>
+      </c>
+      <c r="D126" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>21</v>
+      </c>
+      <c r="B127">
+        <v>131.79999999999998</v>
+      </c>
+      <c r="C127" t="s">
+        <v>24</v>
+      </c>
+      <c r="D127" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>11.9</v>
+      </c>
+      <c r="B128">
+        <v>131.99999999999997</v>
+      </c>
+      <c r="C128" t="s">
+        <v>24</v>
+      </c>
+      <c r="D128" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>16.3</v>
+      </c>
+      <c r="B129">
+        <v>132.29999999999998</v>
+      </c>
+      <c r="C129" t="s">
+        <v>24</v>
+      </c>
+      <c r="D129" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>12.1</v>
+      </c>
+      <c r="B130">
+        <v>132.49999999999997</v>
+      </c>
+      <c r="C130" t="s">
+        <v>24</v>
+      </c>
+      <c r="D130" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>20</v>
+      </c>
+      <c r="B131">
+        <v>132.79999999999998</v>
+      </c>
+      <c r="C131" t="s">
+        <v>24</v>
+      </c>
+      <c r="D131" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>21.1</v>
+      </c>
+      <c r="B132">
+        <v>132.89999999999998</v>
+      </c>
+      <c r="C132" t="s">
+        <v>24</v>
+      </c>
+      <c r="D132" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>9.9</v>
+      </c>
+      <c r="B133">
+        <v>132.99999999999997</v>
+      </c>
+      <c r="C133" t="s">
+        <v>24</v>
+      </c>
+      <c r="D133" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>-12.8</v>
+      </c>
+      <c r="B134">
+        <v>3.6</v>
+      </c>
+      <c r="C134" t="s">
+        <v>25</v>
+      </c>
+      <c r="D134" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>-12.2</v>
+      </c>
+      <c r="B135">
+        <v>7.5</v>
+      </c>
+      <c r="C135" t="s">
+        <v>25</v>
+      </c>
+      <c r="D135" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>-10.9</v>
+      </c>
+      <c r="B136">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="C136" t="s">
+        <v>25</v>
+      </c>
+      <c r="D136" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>-9</v>
+      </c>
+      <c r="B137">
+        <v>20.8</v>
+      </c>
+      <c r="C137" t="s">
+        <v>25</v>
+      </c>
+      <c r="D137" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>-8</v>
+      </c>
+      <c r="B138">
+        <v>28.1</v>
+      </c>
+      <c r="C138" t="s">
+        <v>25</v>
+      </c>
+      <c r="D138" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>-7.6</v>
+      </c>
+      <c r="B139">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="C139" t="s">
+        <v>25</v>
+      </c>
+      <c r="D139" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>-7</v>
+      </c>
+      <c r="B140">
+        <v>48.900000000000006</v>
+      </c>
+      <c r="C140" t="s">
+        <v>25</v>
+      </c>
+      <c r="D140" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>-5.7</v>
+      </c>
+      <c r="B141">
+        <v>51.100000000000009</v>
+      </c>
+      <c r="C141" t="s">
+        <v>25</v>
+      </c>
+      <c r="D141" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>9.9</v>
+      </c>
+      <c r="B142">
+        <v>51.20000000000001</v>
+      </c>
+      <c r="C142" t="s">
+        <v>25</v>
+      </c>
+      <c r="D142" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>11.9</v>
+      </c>
+      <c r="B143">
+        <v>51.300000000000011</v>
+      </c>
+      <c r="C143" t="s">
+        <v>25</v>
+      </c>
+      <c r="D143" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>11.9</v>
+      </c>
+      <c r="B144">
+        <v>51.500000000000014</v>
+      </c>
+      <c r="C144" t="s">
+        <v>25</v>
+      </c>
+      <c r="D144" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>12.1</v>
+      </c>
+      <c r="B145">
+        <v>51.700000000000017</v>
+      </c>
+      <c r="C145" t="s">
+        <v>25</v>
+      </c>
+      <c r="D145" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>16.3</v>
+      </c>
+      <c r="B146">
+        <v>52.000000000000014</v>
+      </c>
+      <c r="C146" t="s">
+        <v>25</v>
+      </c>
+      <c r="D146" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>17</v>
+      </c>
+      <c r="B147">
+        <v>52.500000000000014</v>
+      </c>
+      <c r="C147" t="s">
+        <v>25</v>
+      </c>
+      <c r="D147" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>20</v>
+      </c>
+      <c r="B148">
+        <v>52.800000000000011</v>
+      </c>
+      <c r="C148" t="s">
+        <v>25</v>
+      </c>
+      <c r="D148" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>21</v>
+      </c>
+      <c r="B149">
+        <v>52.900000000000013</v>
+      </c>
+      <c r="C149" t="s">
+        <v>25</v>
+      </c>
+      <c r="D149" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>21.1</v>
+      </c>
+      <c r="B150">
+        <v>53.000000000000014</v>
+      </c>
+      <c r="C150" t="s">
+        <v>25</v>
+      </c>
+      <c r="D150" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>29.7</v>
+      </c>
+      <c r="B151">
+        <v>53.200000000000017</v>
+      </c>
+      <c r="C151" t="s">
+        <v>25</v>
+      </c>
+      <c r="D151" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>49.4</v>
+      </c>
+      <c r="B152">
+        <v>53.40000000000002</v>
+      </c>
+      <c r="C152" t="s">
+        <v>25</v>
+      </c>
+      <c r="D152" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
